--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/57_Mardin_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/57_Mardin_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA9BC80-CED9-464A-BA97-6BB86E948470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD53C35-B9F5-48D4-80A7-8C4C274B6741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3F0D0DB1-8025-49D6-8012-3CF334E50F19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB132AC4-53F1-4D71-ADBB-F3C143B0D0C9}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{4A5465B6-1979-430C-98AA-B54B9EB5D8AE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{6831478E-8067-4C6C-BE2C-38BFEE55E678}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{1AD2E837-943C-4F54-A83C-24D4212D308B}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{07430ECE-F46F-46B1-9E73-F3BE64AD0C12}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{17A46B64-0EFA-48D9-8934-7DF74F4D2D6C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{F382A845-4FA3-4811-B346-2DB6BFDC4494}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{5AABC443-4D84-49F5-A64F-AB44167146CB}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{6EF6EFEE-DC08-471B-8725-B0E18F6F1CEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90604B-391B-4EDC-9498-720FA9651B46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D008DE-CA00-4626-A858-14A605972D56}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2453,18 +2453,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C682108D-A804-4516-8C1A-F1F43B00834D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{58E1A973-B0BD-46B4-83DD-5763B4F516D8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{344E2AC3-A436-44F1-80F8-AFCF55BEA1D3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3D09E858-A9B8-4728-BB06-B6302683639B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D539D252-4019-499B-BEE4-DBFE608B98D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1EE8EFEF-9529-4BA9-B776-8B82AD61F395}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{035498B8-CE48-47B1-8D2E-8B4396B4D647}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{61DB9F26-707C-4441-8F32-C69A61FC3611}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7393092D-DBB8-46CA-BEC0-A6406AE7F258}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B3F837AC-4402-4167-AF45-47B1B569CDB1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{32DA718B-3C1D-46E0-97E7-8191CED6AB9C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C9C33DE7-245D-4ECF-AA47-D4B608EB2724}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5F5BFF2C-F0EF-4D74-8040-9BA48BE4ED22}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{40CB614F-BA44-4EC5-B77D-EED9E37F6F6D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5E019AD4-E023-4C4C-9785-A8A4B0D2CB8F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C8C732BD-E6FE-4767-95AD-BD39FF5A1A64}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{86B73AE7-DDE5-44F1-B6F3-EF2C9DB12D54}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8CBDE214-CD7D-4FFC-8171-AE014C207702}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B0338538-81BD-4DFF-B02B-CEF192CA82D3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B0EA1090-8D35-45D1-9793-F55AC3B634F9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1C849ED6-3378-4BC1-BDE8-4E58E3835BBB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{034FFEB2-A8F0-4FFE-8A1D-26C76133C65B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{15CE304D-7C22-4819-9412-1B108083A7CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6E103176-6D47-4578-B1F8-8D19FD875423}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2477,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4D6469-9F77-4DA6-9A50-53A4FF3EC4BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1974693B-8D5A-429A-B7BB-1A273323CB92}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3660,18 +3660,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F7884E62-C43B-4346-A282-F61C25BEC46D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4EF47FB0-4FB2-40C6-84D8-F96F4EAD8179}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{229111B0-C958-4A35-BB1F-EE3845DF1F75}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{56E6EFD9-116F-4A59-8A3D-317FBCC60D22}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5A6F2DAD-3B43-4693-8315-10B0D63D7022}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{04656EDA-2C14-4AB5-A719-3E318A5B6F94}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{937D1324-6373-4F00-B2F8-F1CE5BABCA41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{08C7D5B2-1F2C-4615-ADB1-49CF0B71C5EA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{358A8255-B598-4C59-AB89-D3115F7895C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{72850C60-77CE-4F71-8189-FEB5331E0F6D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7E17CA38-47A3-4B7F-9363-D1FB07C655FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D70360BB-FAF6-497D-86DF-6A7F9D67A260}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0682AB9C-0057-4AE6-BD30-E319B4D6EC0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A7130193-4D25-4326-A22A-FCE4476D34BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F5A70DA6-5609-465D-B41F-92A6C6E407C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A2170CF4-F170-4424-8BEC-BC72220206E4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9921B210-3595-49C3-99AE-9FDE4652B325}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1D17F45F-07F8-41BA-80B1-C9FBFC3DBB2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{875F0880-D660-4CA3-B8E2-B4ED85CA2592}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AB5A9AFF-B0DC-4D28-AF89-566BF86A8458}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7258D1DB-A10C-4FF1-8D3A-D2DBACF388B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7964172D-5DD1-4EFF-BBB0-403F1EA97324}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FDEBE806-B445-423D-85DE-11BA8B0A76D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7EC6AB0B-D33E-44AD-BA48-7996B9E7231D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3684,7 +3684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1465F896-59ED-4A66-A3D4-08C3C0E696A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D04D55C-B1C7-4914-B3F1-831FEF9FE099}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4867,18 +4867,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6A733E63-3B79-41A0-8202-C8E0FDA3C076}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{07C7646E-361D-499B-88E0-C06C5915FF11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9752DD8B-AA91-43C8-BBDC-C0724E0F6521}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{06CC2E3A-6338-4D1D-8A8B-23D11B973FC9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BD08ADF5-0E08-4140-AD7E-8421E57A3870}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B4F59C3F-600C-4612-AC74-9F4CB0BF46F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{249749BF-E17C-428D-8DC7-B62DFFD92CE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6047E660-9BD0-4FBD-927E-67CD301B454F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{424C8917-DF24-4617-8769-EEB3F648EAB9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{06311D55-DA81-4C88-92A1-90A5C98E78F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0AB12DC9-C7C7-4B9A-A435-1255F1BB0F83}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{45593940-E100-4D54-925C-633FFD9D23DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D02CA924-84CE-4154-9781-7525DB3E7FD9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3C15B403-2B09-4968-9F62-9356E66C1E65}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{85B3EB7D-CC2C-47AA-93A3-3A722891CED5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6D9F3314-1BC8-4A99-8D76-7B085E707A27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B5EFABA0-8948-4745-A356-FD0022E46CD5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{86F5D376-C791-497A-8E5E-B9ADB88DAAF8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3805F3E5-7156-4EB3-A517-2FD174A52668}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{429244DF-37BC-46C4-972C-6F6867FB4685}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{94A73254-CED7-42DC-83D0-895A64D2BBD9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{84DC6853-1464-4A37-AA4B-43405327EEFE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C72DF0A2-1903-44E2-B699-693443EC835D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC608DF5-9130-470D-9AF4-D961A522396A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4891,7 +4891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FDA3D1D-8405-46DC-9B27-36EDC212DCD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAA331B-BB72-4D2D-9F63-0DE54E701DFA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6066,18 +6066,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9C1318E2-5F49-471B-A915-59DE7D821D30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D5356856-7AC7-4AF6-B738-8087FC404827}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{432AD16F-CAEC-4FBF-9768-F58B9C900EF2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4B1DBDFF-9EA3-440A-AADA-88FB89CD0398}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{734EFAFE-CEBD-437E-8D17-ACD76FC7EF73}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8BFAD145-00B5-4741-8786-4195313148A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6FC761D7-FCD2-4E7B-A182-0799879B71C1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{77879FD1-67DA-4320-A1A1-36613A8F03B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{23FC94A8-5FE7-4335-B660-0FCAA4FD8265}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C0BF9482-A0FD-479F-9A95-656CC262E8FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{351792C1-5E34-41F4-BAC8-20D6EF49F3BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D910E8A3-4404-437E-B348-FFD1EA6E4B33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D3ED8321-DE0B-491F-BE18-B672C6D7E2FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CB0418AE-5395-4001-87A3-C43D588EB845}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{55B16713-BA9B-4BEA-B4E6-FF062584A225}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F65B07B9-AE5B-4F91-B8EE-67A8DBF3428B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ECAE258C-AC81-4DD9-ACE0-39F246165557}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{13E8F489-5BB0-4358-8D1D-59A4E903DE95}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CADCE9CA-08E3-483B-B15C-A86EEA3D988D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0C0ADABC-64A4-4822-92F5-2C3743182308}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BC6EDACC-4D1B-4FF6-9177-660C4A7FC7AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0E92E3A0-D5E5-4AD7-949D-AC94991C0FB1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2C7B599C-2F36-4F87-8CEE-76431AA835E6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{05A411B1-8712-41B0-AEB1-6E911E7E9E79}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6090,7 +6090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FECD2493-3249-403F-8E6C-82D054D3C09E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B31757-35BC-4213-8E0C-25EDE739496F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7305,18 +7305,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6F524483-D94F-4C61-A60A-5DC3851ED423}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5E64E1AE-AB28-4791-BC5B-4072A8C0DD26}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B3DCC7AB-6E0E-4283-A2ED-807FD3D5D119}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F70E710B-F0F2-4730-BFFF-31129AAD0419}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{816549F7-2C63-43A7-9FF9-A1BB7B975BE0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{27A01D4A-BB4A-4B69-9DD4-F3E232DFEEFD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CCB18D20-F026-4E4A-A8A9-D14C10F71785}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CA4953E0-4B35-4D34-8A4C-0EB5F4D45F34}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{32640CAA-FB9A-43D7-A1B9-397AC5F53974}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB3FC725-2716-40A6-B4F9-829DB0F59942}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{61D84639-3729-403A-B730-638D910B4657}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CE9627D8-0E97-4EBE-9863-EB896883BB7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B7849D98-532D-44C1-8365-19AB3B983A3B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2E216FEC-19FA-448F-B154-0B4EABCD20B9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{46CF24FF-6883-4CA6-8912-16F418D02ADE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5D1C8ADF-FD24-4AF6-88DF-C791F5DD2FEF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{66133910-072A-4758-8604-E9B9C4D74D90}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CE377FA5-2969-4983-B3DB-12BADDC6B1D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1E23EAF2-0144-462E-9BC0-79CE938694D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D43AE35F-6A09-43FE-B55E-21ED26E48629}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B9587D1F-F71B-47E5-8C9C-E7E0174A8E8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E6BECA92-A266-4753-A2CA-C157664FA864}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BBDE6B1F-C215-42C7-9691-5FF0F1706E9D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3335AD68-2EB2-4908-9BDD-06D4CD7394ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7329,7 +7329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FF34BC-5DEB-4D56-AA44-24149D995704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32ECC456-0EC6-4EA9-8F03-8BC55A632DA7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8544,18 +8544,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7FC36998-C730-45EC-8C63-C7821C896A01}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F8EEDC6E-2162-48DA-9870-DFEE2E0B8BFB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7CC4822-56DF-48BC-BB95-DF86835F2A8F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{843DB8D0-C6A3-4F1B-9136-F9A447EDD5C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DCD38428-7E6E-4221-ABF6-E6B6210ED52D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0B01BE2D-9F1A-4E5F-A220-7BA3A2D379DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E7A48CBB-9EC7-45F3-A0F1-859A66D2EAE5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9F37DC67-1FAB-4178-B727-9B94F2ABCD92}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4D6ADC6C-41B0-41B6-9E9E-D038A04ABC1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D566A18A-4EC0-4910-88E4-FD764B32852D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F2A7DCD4-BEE6-461E-927A-B466442DDF83}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE6E7310-E8FD-4FB9-ACBB-2DD4971C03C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{262FE902-550E-44F6-AACE-D20D97A6FBC9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{26158B9A-F729-4566-AF11-6897E527C043}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DF63B8B8-D82D-4E79-A592-8CC917138BB3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AC2993C8-EE9E-419E-A321-8892755F1E88}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C0FCBF30-1637-4C7F-B4FB-9192366B0EA3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7052CDCC-2E08-47F3-AC00-4AB691B78F2C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5E017A1F-0AD3-44FB-BE27-917AEA625214}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{632C4A1C-F125-45E5-A716-FD185D625A24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{711A0093-9FB8-4DAE-8A93-B5FC55611DA8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D9BB7302-2565-4BD6-8164-1883B5E8F434}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A11AD58D-9AB6-4057-9AB7-4B6CE7AA30F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{28D5BA6D-AED1-4D95-A74A-EDC31655B6BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8568,7 +8568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA0E697-BBFF-43F4-980F-9C53C4166D92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414F0194-B715-4D3D-9933-17518FAEE9C4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9783,18 +9783,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9FCC0271-533B-4F5F-B3CA-1D6C6340BF07}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{20EB560F-9BEA-48E1-A148-FA6C42B0481E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9EB9AF95-A957-4663-A11D-C06D9CAE1D62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9DE028E3-7BC0-4EB7-AD49-B5A1AC3322E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{396E5612-B96D-4204-A6A9-06AED7C110E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E6516F67-A87E-4F7F-B271-6B6B128EF9F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3CA7D7D6-1B71-425A-A466-A1D0ACB3A119}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C684E808-AC68-4793-A0CE-D5BD27A32B11}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{52848194-79B2-4464-9834-A79FDAFAD7E7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6448B378-95C1-41BC-BE41-5EE377FC1009}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EFAEB2D5-08E9-4FA4-8240-58067D4CB66A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CCA27949-6B45-43D6-96E1-1ADAC7C4C490}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{60D9C759-51C0-4535-B4E3-19440C4B64DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C21E2784-2593-4D5F-9996-1CF6D9681BC7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8F5B760F-D337-40A8-A22A-D3EE83DB401B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D0BE10D6-621E-4921-BB7D-41EEB4EFDFD3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{18237DA4-858D-4FA6-B0B7-E07F5A3543B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E49AFE2A-8749-4450-8607-DED57A3A80A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EE6389E8-EBF8-46B2-8C4E-4BC17109327E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1583CED7-A7DA-4D96-AFF5-3D111E5E4180}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9551FEA3-1190-4C69-B4A1-B095C704207F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6F392B44-8229-421E-AFD4-AF15F5019A95}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E2110832-B258-4B95-8BA6-7982ECDAF39F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9268D564-81B0-48AA-B699-1050F72247C0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9807,7 +9807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C1FE37-2BF7-482E-B2D1-CF86B6F22105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DBC107-D38F-45ED-B7F7-574D3F04796B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11016,18 +11016,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{975C3320-9B2F-4C0F-9933-8DB7263B2C02}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B3FC6B5D-B271-4A03-8347-51A940008375}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3FA8774A-28C2-45AB-9C22-91DA2F476FDD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DB95D5BA-C57F-4FF5-BF54-AC81C9AF018A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{28F85E47-6B38-4874-9C32-B2C8A7DA32F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1271309E-91A3-4145-BE8C-FF9C85BA25EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D62950DE-1482-494E-8EA4-253F2E99D0F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A66D15A2-E20E-4A3B-9BB4-C71B7B11AC4B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4CBBFA6B-BB26-43A5-BC75-CA4577245957}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{59B7A2E5-209F-4C68-896D-4368790E92D2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D48BC39F-5FDF-4587-BE20-8C17E34F8F2C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{19919CB4-76E0-4A0C-8415-909717CA322A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D7D24402-43DB-4BF4-B7B5-AF651565A7C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9794F0F8-D7C9-479F-B69E-4BFE611204EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{436A8DE5-59BE-4AE2-97A6-CA9089424736}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{502D2CA2-CD9C-4368-A58C-623149C36948}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8786D49F-0431-472C-8DCF-04E8B1E5AABA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{408D7979-95D8-4BC7-B5E7-579D5BE8475B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D50F3C27-CC09-4949-84D1-6193038910F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BCEC11E1-004F-46A3-815B-47512757BFCB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DA03B6D3-B5E0-46D4-B8CB-843227F87671}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{50DAD02D-C639-404D-8BAD-3768D7262A63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7412983C-1B8E-490F-B8FE-8735DFE74F64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9373C110-76E4-4BA7-BEE0-7AB7336C3E95}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11040,7 +11040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F17EB9-6293-4C8A-AC35-0F89CCDDE697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F0B0BE-6965-4EF5-97D7-C4E95650B960}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12249,18 +12249,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5ED63F3A-765B-435D-B6B1-2D25A1A65007}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F90485BE-DF4C-4EAD-AC64-D4DF44FF3333}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E3CC336A-9D87-40AD-8730-9258839D15E4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FEC3A4B5-E2CD-4950-A815-62E9E6221F07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D419E6FD-3C56-46B7-B7D8-DFF1EF554613}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7BB47A76-BE53-4BF0-9327-14151EC10C58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2B61D0F3-2C03-4884-98CC-F54F0C7A9BDD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A56760DE-AB8B-4818-A084-5509747EC0C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B24A36A5-B1C3-4B7C-B540-D8215CE36F70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{839EFA93-06C1-4314-8FC3-B9B4FA6BED07}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{305568F4-1A8C-40B7-A464-EEC3D201A762}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{33BF2BF9-B26C-4EEA-BDEB-1D38E163EE0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DD1D5CE0-14A7-409D-BC28-8B15A0F5C268}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FD19674B-D1F8-4FF7-8C7F-58DFE6F8FC9F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{852999C3-8FF5-47C4-9C9C-5F6776414E5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0187C17D-A283-4F0D-B081-75D2DE9CE20A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E4C76F09-360E-41B2-9B74-8899A4927A3A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ED4781FD-6116-43FB-A30A-C31A558A3909}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A546FB80-2BA5-4212-BEBB-FC2C1440FEB7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5EB857FE-70A1-4EC0-B52B-B106B98D1002}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{363E6222-C0E6-4F1C-BA69-4CAFC7802B4D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3B738DE0-93EB-4A89-B8E7-5B2CE92BA7CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BD16921F-2BBE-4650-A7AD-A189BF2139D6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A88D00F7-A269-4066-9146-B7963D1E9AE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12273,7 +12273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E0B7A5-65FF-4F4E-A7EB-AF39AA00F8BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38642F42-5369-41E6-9C9E-2FAF7DBDD6C9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13472,18 +13472,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{219B1EEA-7CF8-4C35-ACCF-17755FB71987}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DFC0FFDE-C9D8-48C5-B6D0-45B5DD77E985}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6BF6CC05-3B5F-499A-B45D-9BEBDD1AAA1E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E378A299-1FAB-42B6-9BB7-617DC0C0EDA4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6454F9F4-ED50-428E-B838-D3D8DF5B418D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{77041766-3F0A-46C9-BEE1-F802DF52198C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B11B9E01-6823-4311-A0A4-5A9F21904CD7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A871E7C2-7160-43CA-A4E8-626FF3C89880}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E543CB85-ED9B-417F-B082-C1CB9629CA1B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{61082302-1434-4781-BB7F-B10F65258598}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2FFAAAAC-BFCF-411F-817E-83CAD7D5C738}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0F9BABA0-EBCD-4B6F-A1C0-E81EF051F215}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{44FB0022-3CA3-4582-95C3-3DBC340D1A7C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BF4266F7-EA40-4069-ADE1-9A1CA65EDD1C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0AD1E747-4243-4FD4-98B2-E0171F767656}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{62DA9118-4A56-4BA1-BEC3-AF210514ED5B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB0AF4C3-4D77-4669-BB33-A83E58B88A3A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{80052C4F-B1FE-4004-8AD6-061B89FB3A89}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AE0342A0-9BA8-43D9-BC69-50207E955729}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D9EF510-6AE0-4A08-A3CD-66CED9FDA7B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{675236D5-124C-45D0-BBCD-DAF1DC9F4A33}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3C29B88B-9F6F-4069-A4A6-4021DEEEBA15}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C9B52DC2-B97D-4926-992D-9A5A4FC66A83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6AF40F3A-3A33-49F8-A087-5A48F4B18332}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13496,7 +13496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501ECF81-15F7-4549-ADD3-E87CAD6C2D7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AD0633-D040-4617-9E97-BDB676940E5B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14695,18 +14695,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84A47089-99B7-4472-A772-98A204C44A11}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{97C05C81-DE81-40BA-88E4-375C2FBE9193}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1B56C092-5251-42D2-AD5F-1FDEDD302E12}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{556DCC9C-AE9F-4688-9AD5-AE478B00F7CC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4EC95878-5E9E-4615-A49D-72DEB346CB53}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F5BCB5A1-66F8-4CB8-AA32-453B68CFFF89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{86551BED-A095-47B1-81EB-F28D1198BD71}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{30BE8BCD-E62A-49E5-9371-708A27E9E39F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EE3B5620-A760-49BC-BCC8-27BA67414400}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2ED79E78-93F7-40C3-B277-B5D5A27B71DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4FDEEC65-E7B1-472B-BA8A-770B66D4CFE2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1F0F7524-2C96-413B-9D07-49EA60E76A8B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B309AB7A-162A-4E3A-A6C7-55A04F772384}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E8667A05-0AAA-44CE-AD7A-13A35241D5E9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2D23293B-83DF-4DD2-89E5-983BE14400D9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D2F077C9-3FA9-43AB-A0D4-5E7179E2C9E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{27739740-CA78-4416-9C0B-32E93D3B6A11}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{766FBE5C-AB9C-4970-8E70-B140CC5F808B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{46BCB799-61B7-4463-B286-E2BCAFC188F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{15C42421-C5D0-47BE-88D3-2FFB50638D43}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2825594C-FF67-4021-AC84-B017ABBC55D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{352BA31F-05D1-49AE-96D4-D434A2BE05A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{301352AE-B840-4DD0-8E9C-B4B68508ABFE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EA4545DD-675A-46DB-953D-82AA04A6188B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14719,7 +14719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8179625E-874A-4578-894C-9CF15C1FC169}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F45723C-BD0A-42FB-9D35-4A923121854F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15918,18 +15918,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{98E0BA2F-C9A3-4705-8C24-07E2872E2EF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8EA8C94F-1DEC-443E-AA84-8BCF8F014F6F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{42F7245A-E658-4E2D-8426-9F96CBEB06DD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{83C2EFC7-CDD0-48A1-B9A7-1D99EF90E0C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C7FCFD78-C852-43A9-8ED0-EE09F4051A3A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F4939723-C9A7-4B8E-9829-D23313277F9D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AAA3E5E8-86CB-4406-BF9B-6FEE8C46B7FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3C39978F-C7E0-4D13-9DBD-6D4542B258F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9A7FA988-D0A8-475F-8B31-BA4076A5A8B5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4ED00DA7-B0A3-49EF-8072-7875E618679A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{254862E4-18B1-4157-955C-0D71DF99C744}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{354E8623-0D50-4720-BE12-DDB996966608}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E714C50B-F633-4906-991A-225122D115CD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4DC576EE-0832-479A-A56D-C7F2E788AE3F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{86FF1A1E-4C73-4973-B239-7E62E0BF85E2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{12B5607A-C2D4-4824-8FA9-764AD9B1C5C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4CE064DB-59AB-4BCA-857C-B2A41E293DDF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8432A64C-5D32-415A-8177-92B5E0E17570}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A82C1D30-A17C-4CB7-9ACC-B0089FB38430}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A73DD90D-C4DD-4793-B614-775251BFFE88}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{741AEDB7-ED9E-49A2-B845-E929B6F279B0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3E83E5F3-29D5-4F2F-BB65-11B3AD974451}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5AE19552-728D-4D4B-8AE6-05EDCC60826E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DA02CE7B-6FD0-42CA-8DAD-49AA505582B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
